--- a/attached_assets/FoodItems_Cleaned.xlsx
+++ b/attached_assets/FoodItems_Cleaned.xlsx
@@ -489,16 +489,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>https://example.com/masala-peanuts.jpg</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -520,16 +524,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>https://example.com/masala-kichiya-papad.jpg</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -551,16 +559,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>https://example.com/spicy-makhana.jpg</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -582,16 +594,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>https://example.com/monaco-chilly-cheesy-bites.jpg</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -613,16 +629,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>https://example.com/juhu-beach-channa-jor-garam.jpg</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -644,16 +664,20 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>https://example.com/nachos-with-salsa-&amp;-cheese.jpg</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,16 +699,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>https://example.com/fries-with-three-dips.jpg</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -706,16 +734,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>https://example.com/cheesy-fries.jpg</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -737,16 +769,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>https://example.com/sour-dough-garlic-bread.jpg</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -768,16 +804,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>https://example.com/peri-peri-nachos.jpg</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -799,16 +839,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>https://example.com/corn-cheese-balls.jpg</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -830,16 +874,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>https://example.com/classic-korean-buns-with-guacamole.jpg</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -861,16 +909,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>https://example.com/trio-hummus-with-pita-bread.jpg</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -892,16 +944,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>https://example.com/hummus-with-pita-bread.jpg</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -923,16 +979,20 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>https://example.com/akuri-toast-bb-style.jpg</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -954,16 +1014,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-roasted-tomato-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -985,16 +1049,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-roasted-tomato-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1016,16 +1084,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>https://example.com/cream-of-chicken-soup.jpg</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1047,16 +1119,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>https://example.com/sweet-corn-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1078,16 +1154,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>https://example.com/sweet-corn-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1109,16 +1189,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>https://example.com/tom-yum---veg.jpg</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1140,16 +1224,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>https://example.com/tom-yum---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1171,16 +1259,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>https://example.com/manchow-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1202,16 +1294,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>https://example.com/manchow-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1233,16 +1329,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>1</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1264,16 +1364,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1295,16 +1399,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-hot-&amp;-sour---veg.jpg</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>1</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1326,16 +1434,20 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-hot-&amp;-sour---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>1</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1357,16 +1469,20 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>https://example.com/korean-tofu-salad.jpg</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>1</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1388,16 +1504,20 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>https://example.com/watermelon-feta-salad.jpg</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>1</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1419,16 +1539,20 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>https://example.com/smoked-paneer-salad.jpg</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>1</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1450,16 +1574,20 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>https://example.com/caesar-salad.jpg</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>1</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1481,16 +1609,20 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>https://example.com/smoked-chicken-tikka-salad.jpg</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>1</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1512,16 +1644,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>https://example.com/fish-n-chips.jpg</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>1</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1543,16 +1679,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-butter-garlic.jpg</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1574,16 +1714,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>https://example.com/crumb-fried-prawns.jpg</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>1</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1605,16 +1749,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>1</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>https://example.com/fish-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>1</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1636,16 +1784,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>https://example.com/prawns-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>1</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1667,16 +1819,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>1</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>https://example.com/prawns-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>1</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1698,16 +1854,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>https://example.com/prawns-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1729,16 +1889,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>https://example.com/jamaican-jerk-chicken-tender.jpg</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>1</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1760,16 +1924,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>https://example.com/iceberg-chicken.jpg</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>1</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1791,16 +1959,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>https://example.com/chicken-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>1</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1822,16 +1994,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>https://example.com/zaatar-chicken-soft-open-tacos.jpg</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>1</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1853,16 +2029,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>https://example.com/sumac-spiced-chicken-sheek-kebab-naan.jpg</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>1</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1884,16 +2064,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>1</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>https://example.com/chicken-mini-bonda's.jpg</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>1</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1915,16 +2099,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>https://example.com/amchi-gavti-style-(red-chicken-chilly).jpg</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>1</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1946,16 +2134,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-lollypop.jpg</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>1</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1977,16 +2169,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>https://example.com/stir-fry-sri-lakan-chicken.jpg</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>1</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2008,16 +2204,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>https://example.com/garlic-lemon-coriander-chicken.jpg</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>1</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2039,16 +2239,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>https://example.com/chicken-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>1</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2070,16 +2274,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>https://example.com/chicken-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>1</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2101,16 +2309,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>https://example.com/bombay-irani-kheema-mutter-with-ladi-pav.jpg</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>1</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2132,16 +2344,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>https://example.com/mangalorean-pepper-mutton.jpg</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>1</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2163,16 +2379,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>https://example.com/mutton-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>1</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2194,16 +2414,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>https://example.com/paneer-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>1</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2225,16 +2449,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>https://example.com/zataar-paneer-soft-open-tacos.jpg</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>1</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2256,16 +2484,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>https://example.com/sizzling-cottage-cheese.jpg</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>1</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2287,16 +2519,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>https://example.com/crispy-lotus-stem.jpg</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>1</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2318,16 +2554,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>https://example.com/salt-n-pepper-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>1</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2349,16 +2589,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>https://example.com/wok-fried-crispy-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>1</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2380,16 +2624,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>https://example.com/wok-fried-crispy-cottage-cheese.jpg</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>1</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2411,16 +2659,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>https://example.com/paneer-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G64" t="n">
-        <v>1</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2442,16 +2694,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>https://example.com/paneer-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>1</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2473,16 +2729,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>https://example.com/schezwan-egg.jpg</t>
         </is>
       </c>
-      <c r="G66" t="n">
-        <v>1</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2504,16 +2764,20 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>1</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>https://example.com/malwani-egg.jpg</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>1</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2535,16 +2799,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>https://example.com/classic-paneer-tikka.jpg</t>
         </is>
       </c>
-      <c r="G68" t="n">
-        <v>1</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2566,16 +2834,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>https://example.com/chimmichuri-paneer-tikka.jpg</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>1</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2597,16 +2869,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>https://example.com/paneer-basil-pepper-sheek-kebab.jpg</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>1</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2628,16 +2904,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-stuffed-aloo.jpg</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>1</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2659,16 +2939,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>https://example.com/lasooni-broccoli.jpg</t>
         </is>
       </c>
-      <c r="G72" t="n">
-        <v>1</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2690,16 +2974,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>https://example.com/palak-cheese-stuffed-mushroom.jpg</t>
         </is>
       </c>
-      <c r="G73" t="n">
-        <v>1</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2721,16 +3009,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-chicken---half.jpg</t>
         </is>
       </c>
-      <c r="G74" t="n">
-        <v>1</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2752,16 +3044,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>1</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-chicken---full.jpg</t>
         </is>
       </c>
-      <c r="G75" t="n">
-        <v>1</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2783,16 +3079,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>1</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>https://example.com/afghani-chicken.jpg</t>
         </is>
       </c>
-      <c r="G76" t="n">
-        <v>1</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2814,16 +3114,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-tikka.jpg</t>
         </is>
       </c>
-      <c r="G77" t="n">
-        <v>1</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2845,16 +3149,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>https://example.com/zaatar-chicken-tikka.jpg</t>
         </is>
       </c>
-      <c r="G78" t="n">
-        <v>1</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2876,16 +3184,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>https://example.com/murgh-ghelafi-sheek.jpg</t>
         </is>
       </c>
-      <c r="G79" t="n">
-        <v>1</v>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2907,16 +3219,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>https://example.com/mutton-dhaniya-sheek.jpg</t>
         </is>
       </c>
-      <c r="G80" t="n">
-        <v>1</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2938,16 +3254,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>https://example.com/goan-reshad-masala-fish-tikka.jpg</t>
         </is>
       </c>
-      <c r="G81" t="n">
-        <v>1</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2969,16 +3289,20 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>https://example.com/kasaundi-prawns.jpg</t>
         </is>
       </c>
-      <c r="G82" t="n">
-        <v>1</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3000,16 +3324,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>https://example.com/the-og-mac-&amp;-cheese-pasta.jpg</t>
         </is>
       </c>
-      <c r="G83" t="n">
-        <v>1</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3031,16 +3359,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>https://example.com/penne-pesto-pasta.jpg</t>
         </is>
       </c>
-      <c r="G84" t="n">
-        <v>1</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3062,16 +3394,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>https://example.com/aglio-olio-pepperoncini-pasta.jpg</t>
         </is>
       </c>
-      <c r="G85" t="n">
-        <v>1</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3093,16 +3429,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>https://example.com/fusilli-arrabbiata-pasta.jpg</t>
         </is>
       </c>
-      <c r="G86" t="n">
-        <v>1</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3124,16 +3464,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>https://example.com/penne-primavera-pasta.jpg</t>
         </is>
       </c>
-      <c r="G87" t="n">
-        <v>1</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3155,16 +3499,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>https://example.com/fusilli-rosso-pasta.jpg</t>
         </is>
       </c>
-      <c r="G88" t="n">
-        <v>1</v>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3186,16 +3534,20 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>https://example.com/alfredos-pasta.jpg</t>
         </is>
       </c>
-      <c r="G89" t="n">
-        <v>1</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3217,16 +3569,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>https://example.com/quattro-queso-(4-cheese-pizza).jpg</t>
         </is>
       </c>
-      <c r="G90" t="n">
-        <v>1</v>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3248,16 +3604,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>https://example.com/exotica-veggies-pizza.jpg</t>
         </is>
       </c>
-      <c r="G91" t="n">
-        <v>1</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3279,16 +3639,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-paneer-pizza.jpg</t>
         </is>
       </c>
-      <c r="G92" t="n">
-        <v>1</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3310,16 +3674,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>https://example.com/basil-pesto-mania-cottage-cheese-pizza.jpg</t>
         </is>
       </c>
-      <c r="G93" t="n">
-        <v>1</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3341,16 +3709,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>1</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>https://example.com/basil-pesto-mania-roasted-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G94" t="n">
-        <v>1</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3372,16 +3744,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>1</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>https://example.com/afghani-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G95" t="n">
-        <v>1</v>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3403,16 +3779,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>1</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>https://example.com/garlic-pepper-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G96" t="n">
-        <v>1</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3434,16 +3814,20 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>1</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>https://example.com/kheema-mutter-pizza.jpg</t>
         </is>
       </c>
-      <c r="G97" t="n">
-        <v>1</v>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -3465,16 +3849,20 @@
           <t>sliders</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>https://example.com/veggie-slider.jpg</t>
         </is>
       </c>
-      <c r="G98" t="n">
-        <v>1</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3496,16 +3884,20 @@
           <t>sliders</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>https://example.com/chicken-slider.jpg</t>
         </is>
       </c>
-      <c r="G99" t="n">
-        <v>1</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3527,16 +3919,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>https://example.com/grilled-cottage-cheese-steak.jpg</t>
         </is>
       </c>
-      <c r="G100" t="n">
-        <v>1</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3558,16 +3954,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>https://example.com/stuffed-mushroom-with-butter-herbed-rice-&amp;-tomato-sauce.jpg</t>
         </is>
       </c>
-      <c r="G101" t="n">
-        <v>1</v>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -3589,16 +3989,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>1</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>https://example.com/crispy-chicken-with-pesto-sauce.jpg</t>
         </is>
       </c>
-      <c r="G102" t="n">
-        <v>1</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -3620,16 +4024,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>1</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>https://example.com/grilled-chicken-steak-with-bbq-sauce.jpg</t>
         </is>
       </c>
-      <c r="G103" t="n">
-        <v>1</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -3651,16 +4059,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>1</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>https://example.com/grilled-basa-fish-with-butter-herbed-rice-&amp;-creamy-sauce.jpg</t>
         </is>
       </c>
-      <c r="G104" t="n">
-        <v>1</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -3682,16 +4094,20 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>1</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-butter-creamy-sauce-with-herb-pepper-rice.jpg</t>
         </is>
       </c>
-      <c r="G105" t="n">
-        <v>1</v>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3713,16 +4129,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>https://example.com/crispy-veg-bao.jpg</t>
         </is>
       </c>
-      <c r="G106" t="n">
-        <v>1</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3744,16 +4164,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>https://example.com/cottage-cheese,-smoky-bbq-sauce-&amp;-potato-crisp-bao.jpg</t>
         </is>
       </c>
-      <c r="G107" t="n">
-        <v>1</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -3775,16 +4199,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>1</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>https://example.com/chettinad-chicken-bao.jpg</t>
         </is>
       </c>
-      <c r="G108" t="n">
-        <v>1</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -3806,16 +4234,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>1</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>https://example.com/spicy-chilly-chicken-bao.jpg</t>
         </is>
       </c>
-      <c r="G109" t="n">
-        <v>1</v>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3837,16 +4269,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>1</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>https://example.com/raw-mango-&amp;-coconut-prawn-bao.jpg</t>
         </is>
       </c>
-      <c r="G110" t="n">
-        <v>1</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -3868,16 +4304,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>https://example.com/veg-wild-mushroom-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G111" t="n">
-        <v>1</v>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -3899,16 +4339,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>https://example.com/veg-truffle-edamame-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G112" t="n">
-        <v>1</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -3930,16 +4374,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>1</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>https://example.com/kung-fao-chicken-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G113" t="n">
-        <v>1</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -3961,16 +4409,20 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>https://example.com/veg-philly-cheese-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G114" t="n">
-        <v>1</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -3992,16 +4444,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>https://example.com/paneer-makhani.jpg</t>
         </is>
       </c>
-      <c r="G115" t="n">
-        <v>1</v>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4023,16 +4479,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>https://example.com/paneer-tikka-masala.jpg</t>
         </is>
       </c>
-      <c r="G116" t="n">
-        <v>1</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -4054,16 +4514,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>https://example.com/vegetables-makhani.jpg</t>
         </is>
       </c>
-      <c r="G117" t="n">
-        <v>1</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -4085,16 +4549,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>https://example.com/vegetables-kolhapuri.jpg</t>
         </is>
       </c>
-      <c r="G118" t="n">
-        <v>1</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4116,16 +4584,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>0</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>https://example.com/kadai-paneer.jpg</t>
         </is>
       </c>
-      <c r="G119" t="n">
-        <v>1</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -4147,16 +4619,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>https://example.com/kadai-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G120" t="n">
-        <v>1</v>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -4178,16 +4654,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>0</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>https://example.com/mango-vegetable-curry.jpg</t>
         </is>
       </c>
-      <c r="G121" t="n">
-        <v>1</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4209,16 +4689,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>0</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>https://example.com/mushroom-exotic.jpg</t>
         </is>
       </c>
-      <c r="G122" t="n">
-        <v>1</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -4240,16 +4724,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>0</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>https://example.com/mushroom-tawa-kurchan.jpg</t>
         </is>
       </c>
-      <c r="G123" t="n">
-        <v>1</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -4271,16 +4759,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>0</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>https://example.com/andhra-spiced-aloo-masala.jpg</t>
         </is>
       </c>
-      <c r="G124" t="n">
-        <v>1</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -4302,16 +4794,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>1</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>https://example.com/classic-butter-chicken.jpg</t>
         </is>
       </c>
-      <c r="G125" t="n">
-        <v>1</v>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -4333,16 +4829,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>1</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-tikka-masala.jpg</t>
         </is>
       </c>
-      <c r="G126" t="n">
-        <v>1</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -4364,16 +4864,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>1</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>https://example.com/chicken-kadhai.jpg</t>
         </is>
       </c>
-      <c r="G127" t="n">
-        <v>1</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -4395,16 +4899,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>1</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>https://example.com/murg-mussalam.jpg</t>
         </is>
       </c>
-      <c r="G128" t="n">
-        <v>1</v>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -4426,16 +4934,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>1</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>https://example.com/mangalorean-chicken-curry.jpg</t>
         </is>
       </c>
-      <c r="G129" t="n">
-        <v>1</v>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -4457,16 +4969,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>1</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>https://example.com/chettinad-style-chicken-(dry).jpg</t>
         </is>
       </c>
-      <c r="G130" t="n">
-        <v>1</v>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -4488,16 +5004,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>1</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>https://example.com/mutton-masala.jpg</t>
         </is>
       </c>
-      <c r="G131" t="n">
-        <v>1</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -4519,16 +5039,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>1</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>https://example.com/mutton-sukha.jpg</t>
         </is>
       </c>
-      <c r="G132" t="n">
-        <v>1</v>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -4550,16 +5074,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>1</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>https://example.com/allepy-fish-curry.jpg</t>
         </is>
       </c>
-      <c r="G133" t="n">
-        <v>1</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -4581,16 +5109,20 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>1</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>https://example.com/malwani-masala-prawns.jpg</t>
         </is>
       </c>
-      <c r="G134" t="n">
-        <v>1</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -4612,16 +5144,20 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>0</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>https://example.com/classic-paneer-tikka-biryani.jpg</t>
         </is>
       </c>
-      <c r="G135" t="n">
-        <v>1</v>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -4643,16 +5179,20 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>1</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>https://example.com/chicken-tikka-biryani.jpg</t>
         </is>
       </c>
-      <c r="G136" t="n">
-        <v>1</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -4674,16 +5214,20 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>1</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>https://example.com/mughlai-mutton-biryani.jpg</t>
         </is>
       </c>
-      <c r="G137" t="n">
-        <v>1</v>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -4705,16 +5249,20 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>1</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>https://example.com/prawns-biryani.jpg</t>
         </is>
       </c>
-      <c r="G138" t="n">
-        <v>1</v>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -4736,16 +5284,20 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>0</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>https://example.com/steamed-rice.jpg</t>
         </is>
       </c>
-      <c r="G139" t="n">
-        <v>1</v>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -4767,16 +5319,20 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>0</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>https://example.com/jeera-rice.jpg</t>
         </is>
       </c>
-      <c r="G140" t="n">
-        <v>1</v>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -4798,16 +5354,20 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>0</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>https://example.com/shahi-pulao.jpg</t>
         </is>
       </c>
-      <c r="G141" t="n">
-        <v>1</v>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -4829,16 +5389,20 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>0</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>https://example.com/dal-khichdi.jpg</t>
         </is>
       </c>
-      <c r="G142" t="n">
-        <v>1</v>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -4860,16 +5424,20 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>0</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>https://example.com/dal-tadka.jpg</t>
         </is>
       </c>
-      <c r="G143" t="n">
-        <v>1</v>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -4891,16 +5459,20 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>0</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>https://example.com/dal-fry.jpg</t>
         </is>
       </c>
-      <c r="G144" t="n">
-        <v>1</v>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -4922,16 +5494,20 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>0</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>https://example.com/dal-makhani.jpg</t>
         </is>
       </c>
-      <c r="G145" t="n">
-        <v>1</v>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -4953,16 +5529,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>0</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>https://example.com/roti.jpg</t>
         </is>
       </c>
-      <c r="G146" t="n">
-        <v>1</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -4984,16 +5564,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>0</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>https://example.com/butter-roti.jpg</t>
         </is>
       </c>
-      <c r="G147" t="n">
-        <v>1</v>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5015,16 +5599,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>0</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>https://example.com/naan.jpg</t>
         </is>
       </c>
-      <c r="G148" t="n">
-        <v>1</v>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -5046,16 +5634,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>0</v>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>https://example.com/butter-naan.jpg</t>
         </is>
       </c>
-      <c r="G149" t="n">
-        <v>1</v>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -5077,16 +5669,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>0</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>https://example.com/garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G150" t="n">
-        <v>1</v>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -5108,16 +5704,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>0</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>https://example.com/butter-garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G151" t="n">
-        <v>1</v>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -5139,16 +5739,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>0</v>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>https://example.com/cheese-garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G152" t="n">
-        <v>1</v>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -5170,16 +5774,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>0</v>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>https://example.com/lachcha-paratha.jpg</t>
         </is>
       </c>
-      <c r="G153" t="n">
-        <v>1</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -5201,16 +5809,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>0</v>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>https://example.com/kulcha.jpg</t>
         </is>
       </c>
-      <c r="G154" t="n">
-        <v>1</v>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -5232,16 +5844,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>0</v>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>https://example.com/butter-kulcha.jpg</t>
         </is>
       </c>
-      <c r="G155" t="n">
-        <v>1</v>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -5263,16 +5879,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>0</v>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>https://example.com/paneer-paratha.jpg</t>
         </is>
       </c>
-      <c r="G156" t="n">
-        <v>1</v>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -5294,16 +5914,20 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>1</v>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>https://example.com/chicken-keema-paratha.jpg</t>
         </is>
       </c>
-      <c r="G157" t="n">
-        <v>1</v>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -5325,16 +5949,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>0</v>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>https://example.com/chilly-paneer.jpg</t>
         </is>
       </c>
-      <c r="G158" t="n">
-        <v>1</v>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -5356,16 +5984,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>0</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>https://example.com/paneer-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G159" t="n">
-        <v>1</v>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -5387,16 +6019,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>0</v>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>https://example.com/veg-manchurian.jpg</t>
         </is>
       </c>
-      <c r="G160" t="n">
-        <v>1</v>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -5418,16 +6054,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>1</v>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>https://example.com/chicken-hot-garlic-sauce.jpg</t>
         </is>
       </c>
-      <c r="G161" t="n">
-        <v>1</v>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -5449,16 +6089,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>1</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>https://example.com/kung-pao-chicken.jpg</t>
         </is>
       </c>
-      <c r="G162" t="n">
-        <v>1</v>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -5480,16 +6124,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>1</v>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>https://example.com/butter-garlic-chicken.jpg</t>
         </is>
       </c>
-      <c r="G163" t="n">
-        <v>1</v>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -5511,16 +6159,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>1</v>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>https://example.com/chicken-chilly.jpg</t>
         </is>
       </c>
-      <c r="G164" t="n">
-        <v>1</v>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -5542,16 +6194,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>1</v>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>https://example.com/fish-salt-n-pepper.jpg</t>
         </is>
       </c>
-      <c r="G165" t="n">
-        <v>1</v>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -5573,16 +6229,20 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>1</v>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-black-bean.jpg</t>
         </is>
       </c>
-      <c r="G166" t="n">
-        <v>1</v>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -5604,16 +6264,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>0</v>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---veg.jpg</t>
         </is>
       </c>
-      <c r="G167" t="n">
-        <v>1</v>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -5635,16 +6299,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>0</v>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---veg.jpg</t>
         </is>
       </c>
-      <c r="G168" t="n">
-        <v>1</v>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -5666,16 +6334,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>0</v>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---veg.jpg</t>
         </is>
       </c>
-      <c r="G169" t="n">
-        <v>1</v>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -5697,16 +6369,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>0</v>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---veg.jpg</t>
         </is>
       </c>
-      <c r="G170" t="n">
-        <v>1</v>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -5728,16 +6404,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>0</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---paneer.jpg</t>
         </is>
       </c>
-      <c r="G171" t="n">
-        <v>1</v>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -5759,16 +6439,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>1</v>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---chicken.jpg</t>
         </is>
       </c>
-      <c r="G172" t="n">
-        <v>1</v>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -5790,16 +6474,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>1</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---fish.jpg</t>
         </is>
       </c>
-      <c r="G173" t="n">
-        <v>1</v>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -5821,16 +6509,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---prawn.jpg</t>
         </is>
       </c>
-      <c r="G174" t="n">
-        <v>1</v>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -5852,16 +6544,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>1</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---chicken.jpg</t>
         </is>
       </c>
-      <c r="G175" t="n">
-        <v>1</v>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -5883,16 +6579,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>1</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---fish.jpg</t>
         </is>
       </c>
-      <c r="G176" t="n">
-        <v>1</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -5914,16 +6614,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>1</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---prawn.jpg</t>
         </is>
       </c>
-      <c r="G177" t="n">
-        <v>1</v>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -5945,16 +6649,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>1</v>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---chicken.jpg</t>
         </is>
       </c>
-      <c r="G178" t="n">
-        <v>1</v>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -5976,16 +6684,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>1</v>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---fish.jpg</t>
         </is>
       </c>
-      <c r="G179" t="n">
-        <v>1</v>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -6007,16 +6719,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>1</v>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---prawn.jpg</t>
         </is>
       </c>
-      <c r="G180" t="n">
-        <v>1</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -6038,16 +6754,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>1</v>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---chicken.jpg</t>
         </is>
       </c>
-      <c r="G181" t="n">
-        <v>1</v>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -6069,16 +6789,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>1</v>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---fish.jpg</t>
         </is>
       </c>
-      <c r="G182" t="n">
-        <v>1</v>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -6100,16 +6824,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>1</v>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---prawns.jpg</t>
         </is>
       </c>
-      <c r="G183" t="n">
-        <v>1</v>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -6131,16 +6859,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>1</v>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---egg.jpg</t>
         </is>
       </c>
-      <c r="G184" t="n">
-        <v>1</v>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -6162,16 +6894,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>1</v>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---chicken.jpg</t>
         </is>
       </c>
-      <c r="G185" t="n">
-        <v>1</v>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -6193,16 +6929,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>1</v>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---fish.jpg</t>
         </is>
       </c>
-      <c r="G186" t="n">
-        <v>1</v>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -6224,16 +6964,20 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E187" t="n">
-        <v>1</v>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---prawns.jpg</t>
         </is>
       </c>
-      <c r="G187" t="n">
-        <v>1</v>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -6255,16 +6999,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>0</v>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>https://example.com/veg-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G188" t="n">
-        <v>1</v>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -6286,16 +7034,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E189" t="n">
-        <v>0</v>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G189" t="n">
-        <v>1</v>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -6317,16 +7069,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E190" t="n">
-        <v>0</v>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>https://example.com/veg-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G190" t="n">
-        <v>1</v>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -6348,16 +7104,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E191" t="n">
-        <v>0</v>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
           <t>https://example.com/veg-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G191" t="n">
-        <v>1</v>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -6379,16 +7139,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E192" t="n">
-        <v>0</v>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>https://example.com/veg-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G192" t="n">
-        <v>1</v>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -6410,16 +7174,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E193" t="n">
-        <v>0</v>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G193" t="n">
-        <v>1</v>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -6441,16 +7209,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>0</v>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>https://example.com/veg-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G194" t="n">
-        <v>1</v>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -6472,16 +7244,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E195" t="n">
-        <v>0</v>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G195" t="n">
-        <v>1</v>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -6503,16 +7279,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E196" t="n">
-        <v>1</v>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>https://example.com/egg-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G196" t="n">
-        <v>1</v>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -6534,16 +7314,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E197" t="n">
-        <v>1</v>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G197" t="n">
-        <v>1</v>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -6565,16 +7349,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>1</v>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>https://example.com/egg-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G198" t="n">
-        <v>1</v>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -6596,16 +7384,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E199" t="n">
-        <v>1</v>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
           <t>https://example.com/egg-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G199" t="n">
-        <v>1</v>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -6627,16 +7419,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E200" t="n">
-        <v>1</v>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>https://example.com/egg-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G200" t="n">
-        <v>1</v>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -6658,16 +7454,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E201" t="n">
-        <v>1</v>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G201" t="n">
-        <v>1</v>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -6689,16 +7489,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E202" t="n">
-        <v>1</v>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>https://example.com/egg-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G202" t="n">
-        <v>1</v>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -6720,16 +7524,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E203" t="n">
-        <v>1</v>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G203" t="n">
-        <v>1</v>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -6751,16 +7559,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>1</v>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>https://example.com/chicken-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G204" t="n">
-        <v>1</v>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -6782,16 +7594,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E205" t="n">
-        <v>1</v>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G205" t="n">
-        <v>1</v>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -6813,16 +7629,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E206" t="n">
-        <v>1</v>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
           <t>https://example.com/chicken-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G206" t="n">
-        <v>1</v>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -6844,16 +7664,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E207" t="n">
-        <v>1</v>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>https://example.com/chicken-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G207" t="n">
-        <v>1</v>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -6875,16 +7699,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E208" t="n">
-        <v>1</v>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>https://example.com/chicken-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G208" t="n">
-        <v>1</v>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -6906,16 +7734,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E209" t="n">
-        <v>1</v>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G209" t="n">
-        <v>1</v>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -6937,16 +7769,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E210" t="n">
-        <v>1</v>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>https://example.com/chicken-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G210" t="n">
-        <v>1</v>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -6968,16 +7804,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E211" t="n">
-        <v>1</v>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G211" t="n">
-        <v>1</v>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -6999,16 +7839,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E212" t="n">
-        <v>1</v>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>https://example.com/prawns-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G212" t="n">
-        <v>1</v>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -7030,16 +7874,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E213" t="n">
-        <v>1</v>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G213" t="n">
-        <v>1</v>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -7061,16 +7909,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E214" t="n">
-        <v>1</v>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
           <t>https://example.com/prawns-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G214" t="n">
-        <v>1</v>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -7092,16 +7944,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E215" t="n">
-        <v>1</v>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>https://example.com/prawns-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G215" t="n">
-        <v>1</v>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -7123,16 +7979,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>1</v>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>https://example.com/prawns-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G216" t="n">
-        <v>1</v>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -7154,16 +8014,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>1</v>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G217" t="n">
-        <v>1</v>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -7185,16 +8049,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>1</v>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
           <t>https://example.com/prawns-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G218" t="n">
-        <v>1</v>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -7216,16 +8084,20 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E219" t="n">
-        <v>1</v>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G219" t="n">
-        <v>1</v>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -7247,16 +8119,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E220" t="n">
-        <v>0</v>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>https://example.com/angrezi-sizzler-(grilled-cottage-cheese).jpg</t>
         </is>
       </c>
-      <c r="G220" t="n">
-        <v>1</v>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -7278,16 +8154,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E221" t="n">
-        <v>1</v>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>https://example.com/angrezi-sizzler-(grilled-chicken).jpg</t>
         </is>
       </c>
-      <c r="G221" t="n">
-        <v>1</v>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -7309,16 +8189,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E222" t="n">
-        <v>0</v>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>https://example.com/china-town-sizzler-(cottage-cheese).jpg</t>
         </is>
       </c>
-      <c r="G222" t="n">
-        <v>1</v>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -7340,16 +8224,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E223" t="n">
-        <v>1</v>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>https://example.com/china-town-sizzler-(chicken).jpg</t>
         </is>
       </c>
-      <c r="G223" t="n">
-        <v>1</v>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -7371,16 +8259,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E224" t="n">
-        <v>0</v>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>https://example.com/desi-sizzling-tawa---tandoori-smoked-paneer.jpg</t>
         </is>
       </c>
-      <c r="G224" t="n">
-        <v>1</v>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -7402,16 +8294,20 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E225" t="n">
-        <v>1</v>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>https://example.com/desi-sizzling-tawa---tandoori-smoked-chicken.jpg</t>
         </is>
       </c>
-      <c r="G225" t="n">
-        <v>1</v>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -7433,16 +8329,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E226" t="n">
-        <v>0</v>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G226" t="n">
-        <v>1</v>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -7464,16 +8364,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E227" t="n">
-        <v>0</v>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G227" t="n">
-        <v>1</v>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -7495,16 +8399,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E228" t="n">
-        <v>0</v>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G228" t="n">
-        <v>1</v>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -7526,16 +8434,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E229" t="n">
-        <v>0</v>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G229" t="n">
-        <v>1</v>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -7557,16 +8469,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E230" t="n">
-        <v>0</v>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G230" t="n">
-        <v>1</v>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -7588,16 +8504,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E231" t="n">
-        <v>0</v>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G231" t="n">
-        <v>1</v>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -7619,16 +8539,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E232" t="n">
-        <v>0</v>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G232" t="n">
-        <v>1</v>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -7650,16 +8574,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E233" t="n">
-        <v>0</v>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G233" t="n">
-        <v>1</v>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -7681,16 +8609,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E234" t="n">
-        <v>0</v>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G234" t="n">
-        <v>1</v>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -7712,16 +8644,20 @@
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E235" t="n">
-        <v>0</v>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G235" t="n">
-        <v>1</v>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -7743,16 +8679,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E236" t="n">
-        <v>0</v>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G236" t="n">
-        <v>1</v>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -7774,16 +8714,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E237" t="n">
-        <v>0</v>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G237" t="n">
-        <v>1</v>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -7805,16 +8749,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E238" t="n">
-        <v>0</v>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G238" t="n">
-        <v>1</v>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -7836,16 +8784,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E239" t="n">
-        <v>0</v>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G239" t="n">
-        <v>1</v>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -7867,16 +8819,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E240" t="n">
-        <v>0</v>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G240" t="n">
-        <v>1</v>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -7898,16 +8854,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E241" t="n">
-        <v>0</v>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G241" t="n">
-        <v>1</v>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -7929,16 +8889,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E242" t="n">
-        <v>0</v>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G242" t="n">
-        <v>1</v>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -7960,16 +8924,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E243" t="n">
-        <v>0</v>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G243" t="n">
-        <v>1</v>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -7991,16 +8959,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E244" t="n">
-        <v>0</v>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G244" t="n">
-        <v>1</v>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -8022,16 +8994,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E245" t="n">
-        <v>0</v>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G245" t="n">
-        <v>1</v>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -8053,16 +9029,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E246" t="n">
-        <v>0</v>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G246" t="n">
-        <v>1</v>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -8084,16 +9064,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E247" t="n">
-        <v>0</v>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G247" t="n">
-        <v>1</v>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -8115,16 +9099,20 @@
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E248" t="n">
-        <v>0</v>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G248" t="n">
-        <v>1</v>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -8146,16 +9134,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E249" t="n">
-        <v>0</v>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G249" t="n">
-        <v>1</v>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -8177,16 +9169,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E250" t="n">
-        <v>0</v>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G250" t="n">
-        <v>1</v>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -8208,16 +9204,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E251" t="n">
-        <v>0</v>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G251" t="n">
-        <v>1</v>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -8239,16 +9239,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E252" t="n">
-        <v>0</v>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G252" t="n">
-        <v>1</v>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -8270,16 +9274,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E253" t="n">
-        <v>0</v>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G253" t="n">
-        <v>1</v>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -8301,16 +9309,20 @@
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E254" t="n">
-        <v>0</v>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G254" t="n">
-        <v>1</v>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -8332,16 +9344,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E255" t="n">
-        <v>0</v>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G255" t="n">
-        <v>1</v>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -8363,16 +9379,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E256" t="n">
-        <v>0</v>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G256" t="n">
-        <v>1</v>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -8394,16 +9414,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E257" t="n">
-        <v>0</v>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G257" t="n">
-        <v>1</v>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -8425,16 +9449,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E258" t="n">
-        <v>0</v>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G258" t="n">
-        <v>1</v>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -8456,16 +9484,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E259" t="n">
-        <v>0</v>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G259" t="n">
-        <v>1</v>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -8487,16 +9519,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E260" t="n">
-        <v>0</v>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G260" t="n">
-        <v>1</v>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -8518,16 +9554,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E261" t="n">
-        <v>0</v>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G261" t="n">
-        <v>1</v>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -8549,16 +9589,20 @@
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E262" t="n">
-        <v>0</v>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G262" t="n">
-        <v>1</v>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -8580,16 +9624,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E263" t="n">
-        <v>0</v>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G263" t="n">
-        <v>1</v>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -8611,16 +9659,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E264" t="n">
-        <v>0</v>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G264" t="n">
-        <v>1</v>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -8642,16 +9694,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E265" t="n">
-        <v>0</v>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G265" t="n">
-        <v>1</v>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -8673,16 +9729,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E266" t="n">
-        <v>0</v>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G266" t="n">
-        <v>1</v>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -8704,16 +9764,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E267" t="n">
-        <v>0</v>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G267" t="n">
-        <v>1</v>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -8735,16 +9799,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E268" t="n">
-        <v>0</v>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G268" t="n">
-        <v>1</v>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="269">
@@ -8766,16 +9834,20 @@
           <t>vodka</t>
         </is>
       </c>
-      <c r="E269" t="n">
-        <v>0</v>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G269" t="n">
-        <v>1</v>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -8797,16 +9869,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E270" t="n">
-        <v>0</v>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G270" t="n">
-        <v>1</v>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -8828,16 +9904,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E271" t="n">
-        <v>0</v>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G271" t="n">
-        <v>1</v>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -8859,16 +9939,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E272" t="n">
-        <v>0</v>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G272" t="n">
-        <v>1</v>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -8890,16 +9974,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E273" t="n">
-        <v>0</v>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G273" t="n">
-        <v>1</v>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="274">
@@ -8921,16 +10009,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E274" t="n">
-        <v>0</v>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G274" t="n">
-        <v>1</v>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="275">
@@ -8952,16 +10044,20 @@
           <t>gin</t>
         </is>
       </c>
-      <c r="E275" t="n">
-        <v>0</v>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G275" t="n">
-        <v>1</v>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -8983,16 +10079,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E276" t="n">
-        <v>0</v>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G276" t="n">
-        <v>1</v>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -9014,16 +10114,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E277" t="n">
-        <v>0</v>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G277" t="n">
-        <v>1</v>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -9045,16 +10149,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E278" t="n">
-        <v>0</v>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G278" t="n">
-        <v>1</v>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="279">
@@ -9076,16 +10184,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E279" t="n">
-        <v>0</v>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G279" t="n">
-        <v>1</v>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="280">
@@ -9107,16 +10219,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E280" t="n">
-        <v>0</v>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G280" t="n">
-        <v>1</v>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -9138,16 +10254,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E281" t="n">
-        <v>0</v>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G281" t="n">
-        <v>1</v>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -9169,16 +10289,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E282" t="n">
-        <v>0</v>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G282" t="n">
-        <v>1</v>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="283">
@@ -9200,16 +10324,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E283" t="n">
-        <v>0</v>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G283" t="n">
-        <v>1</v>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -9231,16 +10359,20 @@
           <t>rum</t>
         </is>
       </c>
-      <c r="E284" t="n">
-        <v>0</v>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G284" t="n">
-        <v>1</v>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="285">
@@ -9262,16 +10394,20 @@
           <t>tequila</t>
         </is>
       </c>
-      <c r="E285" t="n">
-        <v>0</v>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G285" t="n">
-        <v>1</v>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="286">
@@ -9293,16 +10429,20 @@
           <t>tequila</t>
         </is>
       </c>
-      <c r="E286" t="n">
-        <v>0</v>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G286" t="n">
-        <v>1</v>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="287">
@@ -9324,16 +10464,20 @@
           <t>tequila</t>
         </is>
       </c>
-      <c r="E287" t="n">
-        <v>0</v>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G287" t="n">
-        <v>1</v>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="288">
@@ -9355,16 +10499,20 @@
           <t>tequila</t>
         </is>
       </c>
-      <c r="E288" t="n">
-        <v>0</v>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G288" t="n">
-        <v>1</v>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -9386,16 +10534,20 @@
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E289" t="n">
-        <v>0</v>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G289" t="n">
-        <v>1</v>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -9417,16 +10569,20 @@
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E290" t="n">
-        <v>0</v>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G290" t="n">
-        <v>1</v>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -9448,16 +10604,20 @@
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E291" t="n">
-        <v>0</v>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G291" t="n">
-        <v>1</v>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="292">
@@ -9479,16 +10639,20 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E292" t="n">
-        <v>0</v>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G292" t="n">
-        <v>1</v>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="293">
@@ -9510,16 +10674,20 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E293" t="n">
-        <v>0</v>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G293" t="n">
-        <v>1</v>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="294">
@@ -9541,16 +10709,20 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E294" t="n">
-        <v>0</v>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G294" t="n">
-        <v>1</v>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="295">
@@ -9572,16 +10744,20 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E295" t="n">
-        <v>0</v>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G295" t="n">
-        <v>1</v>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="296">
@@ -9603,16 +10779,20 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E296" t="n">
-        <v>0</v>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G296" t="n">
-        <v>1</v>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="297">
@@ -9634,16 +10814,20 @@
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E297" t="n">
-        <v>0</v>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G297" t="n">
-        <v>1</v>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="298">
@@ -9665,16 +10849,20 @@
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E298" t="n">
-        <v>0</v>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G298" t="n">
-        <v>1</v>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="299">
@@ -9696,16 +10884,20 @@
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E299" t="n">
-        <v>0</v>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G299" t="n">
-        <v>1</v>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="300">
@@ -9727,16 +10919,20 @@
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E300" t="n">
-        <v>0</v>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G300" t="n">
-        <v>1</v>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -9758,16 +10954,20 @@
           <t>white-wines</t>
         </is>
       </c>
-      <c r="E301" t="n">
-        <v>0</v>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G301" t="n">
-        <v>1</v>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="302">
@@ -9789,16 +10989,20 @@
           <t>white-wines</t>
         </is>
       </c>
-      <c r="E302" t="n">
-        <v>0</v>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G302" t="n">
-        <v>1</v>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="303">
@@ -9820,16 +11024,20 @@
           <t>rose-wines</t>
         </is>
       </c>
-      <c r="E303" t="n">
-        <v>0</v>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G303" t="n">
-        <v>1</v>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="304">
@@ -9851,16 +11059,20 @@
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E304" t="n">
-        <v>0</v>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G304" t="n">
-        <v>1</v>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="305">
@@ -9882,16 +11094,20 @@
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E305" t="n">
-        <v>0</v>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G305" t="n">
-        <v>1</v>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -9913,16 +11129,20 @@
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E306" t="n">
-        <v>0</v>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G306" t="n">
-        <v>1</v>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -9944,16 +11164,20 @@
           <t>dessert-wines</t>
         </is>
       </c>
-      <c r="E307" t="n">
-        <v>0</v>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G307" t="n">
-        <v>1</v>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="308">
@@ -9975,16 +11199,20 @@
           <t>dessert-wines</t>
         </is>
       </c>
-      <c r="E308" t="n">
-        <v>0</v>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G308" t="n">
-        <v>1</v>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -10006,16 +11234,20 @@
           <t>port-wine</t>
         </is>
       </c>
-      <c r="E309" t="n">
-        <v>0</v>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G309" t="n">
-        <v>1</v>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="310">
@@ -10037,16 +11269,20 @@
           <t>port-wine</t>
         </is>
       </c>
-      <c r="E310" t="n">
-        <v>0</v>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G310" t="n">
-        <v>1</v>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="311">
@@ -10068,16 +11304,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E311" t="n">
-        <v>0</v>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G311" t="n">
-        <v>1</v>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -10099,16 +11339,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E312" t="n">
-        <v>0</v>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G312" t="n">
-        <v>1</v>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="313">
@@ -10130,16 +11374,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E313" t="n">
-        <v>0</v>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G313" t="n">
-        <v>1</v>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -10161,16 +11409,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E314" t="n">
-        <v>0</v>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G314" t="n">
-        <v>1</v>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="315">
@@ -10192,16 +11444,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E315" t="n">
-        <v>0</v>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G315" t="n">
-        <v>1</v>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="316">
@@ -10223,16 +11479,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E316" t="n">
-        <v>0</v>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G316" t="n">
-        <v>1</v>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="317">
@@ -10254,16 +11514,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E317" t="n">
-        <v>0</v>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G317" t="n">
-        <v>1</v>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -10285,16 +11549,20 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E318" t="n">
-        <v>0</v>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G318" t="n">
-        <v>1</v>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -10316,16 +11584,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E319" t="n">
-        <v>0</v>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G319" t="n">
-        <v>1</v>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -10347,16 +11619,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E320" t="n">
-        <v>0</v>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G320" t="n">
-        <v>1</v>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -10378,16 +11654,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E321" t="n">
-        <v>0</v>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G321" t="n">
-        <v>1</v>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="322">
@@ -10409,16 +11689,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E322" t="n">
-        <v>0</v>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G322" t="n">
-        <v>1</v>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -10440,16 +11724,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E323" t="n">
-        <v>0</v>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G323" t="n">
-        <v>1</v>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -10471,16 +11759,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E324" t="n">
-        <v>0</v>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G324" t="n">
-        <v>1</v>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -10502,16 +11794,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E325" t="n">
-        <v>0</v>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G325" t="n">
-        <v>1</v>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="326">
@@ -10533,16 +11829,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E326" t="n">
-        <v>0</v>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G326" t="n">
-        <v>1</v>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -10564,16 +11864,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E327" t="n">
-        <v>0</v>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G327" t="n">
-        <v>1</v>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -10595,16 +11899,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E328" t="n">
-        <v>0</v>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G328" t="n">
-        <v>1</v>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -10626,16 +11934,20 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E329" t="n">
-        <v>0</v>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G329" t="n">
-        <v>1</v>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/attached_assets/FoodItems_Cleaned.xlsx
+++ b/attached_assets/FoodItems_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,20 +489,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E2" t="b">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>https://example.com/masala-peanuts.jpg</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,20 +520,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>https://example.com/masala-kichiya-papad.jpg</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,20 +551,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>https://example.com/spicy-makhana.jpg</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -594,20 +582,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>https://example.com/monaco-chilly-cheesy-bites.jpg</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -629,20 +613,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>https://example.com/juhu-beach-channa-jor-garam.jpg</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -664,20 +644,16 @@
           <t>nibbles</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>https://example.com/nachos-with-salsa-&amp;-cheese.jpg</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -699,20 +675,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E8" t="b">
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>https://example.com/fries-with-three-dips.jpg</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,20 +706,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>https://example.com/cheesy-fries.jpg</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -769,20 +737,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>https://example.com/sour-dough-garlic-bread.jpg</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -804,20 +768,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>https://example.com/peri-peri-nachos.jpg</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -839,20 +799,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>https://example.com/corn-cheese-balls.jpg</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -874,20 +830,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>https://example.com/classic-korean-buns-with-guacamole.jpg</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -909,20 +861,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>https://example.com/trio-hummus-with-pita-bread.jpg</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -944,20 +892,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>https://example.com/hummus-with-pita-bread.jpg</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -979,20 +923,16 @@
           <t>titbits</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>https://example.com/akuri-toast-bb-style.jpg</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1014,20 +954,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-roasted-tomato-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1049,20 +985,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-roasted-tomato-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1084,20 +1016,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>https://example.com/cream-of-chicken-soup.jpg</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1119,20 +1047,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>https://example.com/sweet-corn-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1154,20 +1078,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>https://example.com/sweet-corn-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1189,20 +1109,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E22" t="b">
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>https://example.com/tom-yum---veg.jpg</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1224,20 +1140,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>https://example.com/tom-yum---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1259,20 +1171,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E24" t="b">
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>https://example.com/manchow-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1294,20 +1202,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>https://example.com/manchow-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1329,20 +1233,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E26" t="b">
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-soup---veg.jpg</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1364,20 +1264,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-soup---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1399,20 +1295,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-hot-&amp;-sour---veg.jpg</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1434,20 +1326,16 @@
           <t>soups</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>https://example.com/spinach-pesto-chicken-hot-&amp;-sour---non-veg.jpg</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1469,20 +1357,16 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>https://example.com/korean-tofu-salad.jpg</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1504,20 +1388,16 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>https://example.com/watermelon-feta-salad.jpg</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1539,20 +1419,16 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>https://example.com/smoked-paneer-salad.jpg</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1574,20 +1450,16 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E33" t="b">
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>https://example.com/caesar-salad.jpg</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1609,20 +1481,16 @@
           <t>salads</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>https://example.com/smoked-chicken-tikka-salad.jpg</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1644,20 +1512,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>https://example.com/fish-n-chips.jpg</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1679,20 +1543,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-butter-garlic.jpg</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1714,20 +1574,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>https://example.com/crumb-fried-prawns.jpg</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1749,20 +1605,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>https://example.com/fish-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1784,20 +1636,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>https://example.com/prawns-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1819,20 +1667,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>https://example.com/prawns-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1854,20 +1698,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>https://example.com/prawns-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1889,20 +1729,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>https://example.com/jamaican-jerk-chicken-tender.jpg</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1924,20 +1760,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>https://example.com/iceberg-chicken.jpg</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1959,20 +1791,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>https://example.com/chicken-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1994,20 +1822,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>https://example.com/zaatar-chicken-soft-open-tacos.jpg</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2029,20 +1853,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>https://example.com/sumac-spiced-chicken-sheek-kebab-naan.jpg</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2064,20 +1884,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>https://example.com/chicken-mini-bonda's.jpg</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2099,20 +1915,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>https://example.com/amchi-gavti-style-(red-chicken-chilly).jpg</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2134,20 +1946,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-lollypop.jpg</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2169,20 +1977,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>https://example.com/stir-fry-sri-lakan-chicken.jpg</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2204,20 +2008,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>https://example.com/garlic-lemon-coriander-chicken.jpg</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2239,20 +2039,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>https://example.com/chicken-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2274,20 +2070,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>https://example.com/chicken-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2309,20 +2101,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>https://example.com/bombay-irani-kheema-mutter-with-ladi-pav.jpg</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2344,20 +2132,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>https://example.com/mangalorean-pepper-mutton.jpg</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2379,20 +2163,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>https://example.com/mutton-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2414,20 +2194,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E57" t="b">
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>https://example.com/paneer-mangalorean-ghee-roast.jpg</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2449,20 +2225,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E58" t="b">
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>https://example.com/zataar-paneer-soft-open-tacos.jpg</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2484,20 +2256,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E59" t="b">
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>https://example.com/sizzling-cottage-cheese.jpg</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2519,20 +2287,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E60" t="b">
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>https://example.com/crispy-lotus-stem.jpg</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2554,20 +2318,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E61" t="b">
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>https://example.com/salt-n-pepper-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2589,20 +2349,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E62" t="b">
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>https://example.com/wok-fried-crispy-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2624,20 +2380,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E63" t="b">
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>https://example.com/wok-fried-crispy-cottage-cheese.jpg</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2659,20 +2411,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E64" t="b">
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>https://example.com/paneer-classic-chilly.jpg</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2694,20 +2442,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E65" t="b">
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>https://example.com/paneer-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2729,20 +2473,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>https://example.com/schezwan-egg.jpg</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2764,20 +2504,16 @@
           <t>starters</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>https://example.com/malwani-egg.jpg</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2799,20 +2535,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E68" t="b">
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>https://example.com/classic-paneer-tikka.jpg</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2834,20 +2566,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E69" t="b">
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>https://example.com/chimmichuri-paneer-tikka.jpg</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2869,20 +2597,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E70" t="b">
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>https://example.com/paneer-basil-pepper-sheek-kebab.jpg</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2904,20 +2628,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E71" t="b">
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-stuffed-aloo.jpg</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2939,20 +2659,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E72" t="b">
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>https://example.com/lasooni-broccoli.jpg</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2974,20 +2690,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E73" t="b">
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>https://example.com/palak-cheese-stuffed-mushroom.jpg</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3009,20 +2721,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-chicken---half.jpg</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3044,20 +2752,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>https://example.com/tandoori-chicken---full.jpg</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3079,20 +2783,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>https://example.com/afghani-chicken.jpg</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3114,20 +2814,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-tikka.jpg</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3149,20 +2845,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>https://example.com/zaatar-chicken-tikka.jpg</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3184,20 +2876,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>https://example.com/murgh-ghelafi-sheek.jpg</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3219,20 +2907,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>https://example.com/mutton-dhaniya-sheek.jpg</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3254,20 +2938,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E81" t="b">
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>https://example.com/goan-reshad-masala-fish-tikka.jpg</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3289,20 +2969,16 @@
           <t>charcoal</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E82" t="b">
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>https://example.com/kasaundi-prawns.jpg</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3324,20 +3000,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E83" t="b">
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>https://example.com/the-og-mac-&amp;-cheese-pasta.jpg</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3359,20 +3031,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E84" t="b">
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>https://example.com/penne-pesto-pasta.jpg</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3394,20 +3062,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E85" t="b">
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>https://example.com/aglio-olio-pepperoncini-pasta.jpg</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3429,20 +3093,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E86" t="b">
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>https://example.com/fusilli-arrabbiata-pasta.jpg</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3464,20 +3124,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E87" t="b">
+        <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>https://example.com/penne-primavera-pasta.jpg</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3499,20 +3155,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E88" t="b">
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>https://example.com/fusilli-rosso-pasta.jpg</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3534,20 +3186,16 @@
           <t>pasta</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E89" t="b">
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>https://example.com/alfredos-pasta.jpg</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3569,20 +3217,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E90" t="b">
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>https://example.com/quattro-queso-(4-cheese-pizza).jpg</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3604,20 +3248,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E91" t="b">
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>https://example.com/exotica-veggies-pizza.jpg</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3639,20 +3279,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E92" t="b">
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>https://example.com/charcoal-paneer-pizza.jpg</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3674,20 +3310,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E93" t="b">
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>https://example.com/basil-pesto-mania-cottage-cheese-pizza.jpg</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3709,20 +3341,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E94" t="b">
+        <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>https://example.com/basil-pesto-mania-roasted-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3744,20 +3372,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E95" t="b">
+        <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>https://example.com/afghani-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3779,20 +3403,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E96" t="b">
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>https://example.com/garlic-pepper-chicken-pizza.jpg</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3814,20 +3434,16 @@
           <t>pizza</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E97" t="b">
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>https://example.com/kheema-mutter-pizza.jpg</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3849,20 +3465,16 @@
           <t>sliders</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E98" t="b">
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>https://example.com/veggie-slider.jpg</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3884,20 +3496,16 @@
           <t>sliders</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>https://example.com/chicken-slider.jpg</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3919,20 +3527,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E100" t="b">
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>https://example.com/grilled-cottage-cheese-steak.jpg</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3954,20 +3558,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E101" t="b">
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>https://example.com/stuffed-mushroom-with-butter-herbed-rice-&amp;-tomato-sauce.jpg</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3989,20 +3589,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E102" t="b">
+        <v>1</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>https://example.com/crispy-chicken-with-pesto-sauce.jpg</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4024,20 +3620,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E103" t="b">
+        <v>1</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>https://example.com/grilled-chicken-steak-with-bbq-sauce.jpg</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4059,20 +3651,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E104" t="b">
+        <v>1</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>https://example.com/grilled-basa-fish-with-butter-herbed-rice-&amp;-creamy-sauce.jpg</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4094,20 +3682,16 @@
           <t>entree</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E105" t="b">
+        <v>1</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-butter-creamy-sauce-with-herb-pepper-rice.jpg</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4129,20 +3713,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E106" t="b">
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>https://example.com/crispy-veg-bao.jpg</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4164,20 +3744,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E107" t="b">
+        <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>https://example.com/cottage-cheese,-smoky-bbq-sauce-&amp;-potato-crisp-bao.jpg</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4199,20 +3775,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E108" t="b">
+        <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>https://example.com/chettinad-chicken-bao.jpg</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4234,20 +3806,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E109" t="b">
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>https://example.com/spicy-chilly-chicken-bao.jpg</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4269,20 +3837,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E110" t="b">
+        <v>1</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>https://example.com/raw-mango-&amp;-coconut-prawn-bao.jpg</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4304,20 +3868,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E111" t="b">
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>https://example.com/veg-wild-mushroom-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4339,20 +3899,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E112" t="b">
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>https://example.com/veg-truffle-edamame-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4374,20 +3930,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E113" t="b">
+        <v>1</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>https://example.com/kung-fao-chicken-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4409,20 +3961,16 @@
           <t>bao-dimsum</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E114" t="b">
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>https://example.com/veg-philly-cheese-dimsum.jpg</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4444,20 +3992,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E115" t="b">
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>https://example.com/paneer-makhani.jpg</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4479,20 +4023,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E116" t="b">
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>https://example.com/paneer-tikka-masala.jpg</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4514,20 +4054,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E117" t="b">
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>https://example.com/vegetables-makhani.jpg</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4549,20 +4085,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E118" t="b">
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>https://example.com/vegetables-kolhapuri.jpg</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4584,20 +4116,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E119" t="b">
+        <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>https://example.com/kadai-paneer.jpg</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4619,20 +4147,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E120" t="b">
+        <v>0</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>https://example.com/kadai-vegetables.jpg</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4654,20 +4178,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E121" t="b">
+        <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>https://example.com/mango-vegetable-curry.jpg</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4689,20 +4209,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E122" t="b">
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>https://example.com/mushroom-exotic.jpg</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4724,20 +4240,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E123" t="b">
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>https://example.com/mushroom-tawa-kurchan.jpg</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4759,20 +4271,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E124" t="b">
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>https://example.com/andhra-spiced-aloo-masala.jpg</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4794,20 +4302,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E125" t="b">
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>https://example.com/classic-butter-chicken.jpg</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4829,20 +4333,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>https://example.com/classic-chicken-tikka-masala.jpg</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4864,20 +4364,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E127" t="b">
+        <v>1</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>https://example.com/chicken-kadhai.jpg</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4899,20 +4395,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E128" t="b">
+        <v>1</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>https://example.com/murg-mussalam.jpg</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4934,20 +4426,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E129" t="b">
+        <v>1</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>https://example.com/mangalorean-chicken-curry.jpg</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4969,20 +4457,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E130" t="b">
+        <v>1</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>https://example.com/chettinad-style-chicken-(dry).jpg</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5004,20 +4488,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E131" t="b">
+        <v>1</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>https://example.com/mutton-masala.jpg</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G131" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5039,20 +4519,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E132" t="b">
+        <v>1</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>https://example.com/mutton-sukha.jpg</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5074,20 +4550,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>https://example.com/allepy-fish-curry.jpg</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G133" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5109,20 +4581,16 @@
           <t>curries</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>https://example.com/malwani-masala-prawns.jpg</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5144,20 +4612,16 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E135" t="b">
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t>https://example.com/classic-paneer-tikka-biryani.jpg</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5179,20 +4643,16 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E136" t="b">
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>https://example.com/chicken-tikka-biryani.jpg</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G136" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -5214,20 +4674,16 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E137" t="b">
+        <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>https://example.com/mughlai-mutton-biryani.jpg</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5249,20 +4705,16 @@
           <t>biryani</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E138" t="b">
+        <v>1</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>https://example.com/prawns-biryani.jpg</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G138" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5284,20 +4736,16 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E139" t="b">
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>https://example.com/steamed-rice.jpg</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5319,20 +4767,16 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E140" t="b">
+        <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>https://example.com/jeera-rice.jpg</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -5354,20 +4798,16 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E141" t="b">
+        <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>https://example.com/shahi-pulao.jpg</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G141" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5389,20 +4829,16 @@
           <t>rice</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E142" t="b">
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>https://example.com/dal-khichdi.jpg</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5424,20 +4860,16 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E143" t="b">
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>https://example.com/dal-tadka.jpg</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5459,20 +4891,16 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E144" t="b">
+        <v>0</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>https://example.com/dal-fry.jpg</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5494,20 +4922,16 @@
           <t>dals</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E145" t="b">
+        <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>https://example.com/dal-makhani.jpg</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -5529,20 +4953,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E146" t="b">
+        <v>0</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>https://example.com/roti.jpg</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -5564,20 +4984,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E147" t="b">
+        <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>https://example.com/butter-roti.jpg</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G147" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5599,20 +5015,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E148" t="b">
+        <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>https://example.com/naan.jpg</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G148" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5634,20 +5046,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E149" t="b">
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>https://example.com/butter-naan.jpg</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5669,20 +5077,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E150" t="b">
+        <v>0</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>https://example.com/garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5704,20 +5108,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E151" t="b">
+        <v>0</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>https://example.com/butter-garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5739,20 +5139,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E152" t="b">
+        <v>0</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>https://example.com/cheese-garlic-naan.jpg</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G152" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5774,20 +5170,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E153" t="b">
+        <v>0</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>https://example.com/lachcha-paratha.jpg</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G153" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -5809,20 +5201,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E154" t="b">
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>https://example.com/kulcha.jpg</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G154" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -5844,20 +5232,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E155" t="b">
+        <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>https://example.com/butter-kulcha.jpg</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G155" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -5879,20 +5263,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E156" t="b">
+        <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>https://example.com/paneer-paratha.jpg</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G156" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5914,20 +5294,16 @@
           <t>breads</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E157" t="b">
+        <v>1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>https://example.com/chicken-keema-paratha.jpg</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G157" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5949,20 +5325,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E158" t="b">
+        <v>0</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>https://example.com/chilly-paneer.jpg</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G158" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5984,20 +5356,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E159" t="b">
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>https://example.com/paneer-kung-pao.jpg</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G159" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6019,20 +5387,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E160" t="b">
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>https://example.com/veg-manchurian.jpg</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6054,20 +5418,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E161" t="b">
+        <v>1</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>https://example.com/chicken-hot-garlic-sauce.jpg</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G161" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6089,20 +5449,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E162" t="b">
+        <v>1</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>https://example.com/kung-pao-chicken.jpg</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6124,20 +5480,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E163" t="b">
+        <v>1</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>https://example.com/butter-garlic-chicken.jpg</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G163" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6159,20 +5511,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E164" t="b">
+        <v>1</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>https://example.com/chicken-chilly.jpg</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -6194,20 +5542,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E165" t="b">
+        <v>1</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>https://example.com/fish-salt-n-pepper.jpg</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6229,20 +5573,16 @@
           <t>asian-mains</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E166" t="b">
+        <v>1</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>https://example.com/prawns-in-black-bean.jpg</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -6264,20 +5604,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E167" t="b">
+        <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---veg.jpg</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G167" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -6299,20 +5635,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E168" t="b">
+        <v>0</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---veg.jpg</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6334,20 +5666,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E169" t="b">
+        <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---veg.jpg</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6369,20 +5697,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E170" t="b">
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---veg.jpg</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G170" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -6404,20 +5728,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E171" t="b">
+        <v>0</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---paneer.jpg</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6439,20 +5759,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E172" t="b">
+        <v>1</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---chicken.jpg</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G172" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -6474,20 +5790,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E173" t="b">
+        <v>1</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---fish.jpg</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -6509,20 +5821,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E174" t="b">
+        <v>1</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>https://example.com/blue-pea-rice-bowl---prawn.jpg</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6544,20 +5852,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E175" t="b">
+        <v>1</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---chicken.jpg</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G175" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6579,20 +5883,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E176" t="b">
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---fish.jpg</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6614,20 +5914,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E177" t="b">
+        <v>1</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>https://example.com/red-thai-curry---prawn.jpg</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G177" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6649,20 +5945,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E178" t="b">
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---chicken.jpg</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6684,20 +5976,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E179" t="b">
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---fish.jpg</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6719,20 +6007,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E180" t="b">
+        <v>1</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>https://example.com/green-thai-curry---prawn.jpg</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G180" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -6754,20 +6038,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E181" t="b">
+        <v>1</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---chicken.jpg</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G181" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6789,20 +6069,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E182" t="b">
+        <v>1</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---fish.jpg</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -6824,20 +6100,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E183" t="b">
+        <v>1</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
           <t>https://example.com/pad-thai-noodles---prawns.jpg</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G183" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -6859,20 +6131,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E184" t="b">
+        <v>1</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---egg.jpg</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G184" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6894,20 +6162,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E185" t="b">
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---chicken.jpg</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G185" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -6929,20 +6193,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E186" t="b">
+        <v>1</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---fish.jpg</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6964,20 +6224,16 @@
           <t>thai-bowls</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E187" t="b">
+        <v>1</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>https://example.com/ramen-bowl---prawns.jpg</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G187" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6999,20 +6255,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E188" t="b">
+        <v>0</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>https://example.com/veg-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G188" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -7034,20 +6286,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E189" t="b">
+        <v>0</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G189" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -7069,20 +6317,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E190" t="b">
+        <v>0</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>https://example.com/veg-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G190" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -7104,20 +6348,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E191" t="b">
+        <v>0</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
           <t>https://example.com/veg-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G191" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7139,20 +6379,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E192" t="b">
+        <v>0</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>https://example.com/veg-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G192" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -7174,20 +6410,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E193" t="b">
+        <v>0</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G193" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -7209,20 +6441,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E194" t="b">
+        <v>0</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>https://example.com/veg-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G194" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -7244,20 +6472,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E195" t="b">
+        <v>0</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>https://example.com/veg-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G195" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -7279,20 +6503,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E196" t="b">
+        <v>1</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>https://example.com/egg-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G196" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -7314,20 +6534,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E197" t="b">
+        <v>1</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G197" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7349,20 +6565,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E198" t="b">
+        <v>1</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>https://example.com/egg-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G198" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -7384,20 +6596,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E199" t="b">
+        <v>1</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
           <t>https://example.com/egg-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G199" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7419,20 +6627,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E200" t="b">
+        <v>1</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
           <t>https://example.com/egg-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -7454,20 +6658,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E201" t="b">
+        <v>1</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G201" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -7489,20 +6689,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E202" t="b">
+        <v>1</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>https://example.com/egg-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G202" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -7524,20 +6720,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E203" t="b">
+        <v>1</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
           <t>https://example.com/egg-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -7559,20 +6751,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E204" t="b">
+        <v>1</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
           <t>https://example.com/chicken-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G204" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7594,20 +6782,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E205" t="b">
+        <v>1</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G205" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -7629,20 +6813,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E206" t="b">
+        <v>1</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
           <t>https://example.com/chicken-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G206" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -7664,20 +6844,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E207" t="b">
+        <v>1</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>https://example.com/chicken-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G207" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -7699,20 +6875,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E208" t="b">
+        <v>1</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>https://example.com/chicken-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7734,20 +6906,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E209" t="b">
+        <v>1</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -7769,20 +6937,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E210" t="b">
+        <v>1</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>https://example.com/chicken-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G210" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -7804,20 +6968,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E211" t="b">
+        <v>1</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>https://example.com/chicken-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -7839,20 +6999,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E212" t="b">
+        <v>1</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>https://example.com/prawns-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -7874,20 +7030,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E213" t="b">
+        <v>1</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G213" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -7909,20 +7061,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E214" t="b">
+        <v>1</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
           <t>https://example.com/prawns-basil-corn-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G214" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -7944,20 +7092,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E215" t="b">
+        <v>1</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
           <t>https://example.com/prawns-schezwan-fried-rice.jpg</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G215" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -7979,20 +7123,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E216" t="b">
+        <v>1</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
           <t>https://example.com/prawns-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -8014,20 +7154,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E217" t="b">
+        <v>1</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-noodles.jpg</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G217" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -8049,20 +7185,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E218" t="b">
+        <v>1</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
           <t>https://example.com/prawns-schezwan-hakka-noodles.jpg</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G218" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -8084,20 +7216,16 @@
           <t>rice-noodles</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E219" t="b">
+        <v>1</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>https://example.com/prawns-burnt-garlic-flat-noodles.jpg</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G219" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -8119,20 +7247,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E220" t="b">
+        <v>0</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>https://example.com/angrezi-sizzler-(grilled-cottage-cheese).jpg</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G220" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -8154,20 +7278,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E221" t="b">
+        <v>1</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>https://example.com/angrezi-sizzler-(grilled-chicken).jpg</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G221" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -8189,20 +7309,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E222" t="b">
+        <v>0</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>https://example.com/china-town-sizzler-(cottage-cheese).jpg</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G222" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -8224,20 +7340,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E223" t="b">
+        <v>1</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>https://example.com/china-town-sizzler-(chicken).jpg</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G223" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -8259,20 +7371,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E224" t="b">
+        <v>0</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>https://example.com/desi-sizzling-tawa---tandoori-smoked-paneer.jpg</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G224" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -8294,20 +7402,16 @@
           <t>sizzlers</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="E225" t="b">
+        <v>1</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>https://example.com/desi-sizzling-tawa---tandoori-smoked-chicken.jpg</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G225" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -8322,27 +7426,23 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E226" t="b">
+        <v>0</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G226" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -8357,27 +7457,23 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E227" t="b">
+        <v>0</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G227" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -8392,27 +7488,23 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E228" t="b">
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G228" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -8427,27 +7519,23 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E229" t="b">
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G229" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -8462,27 +7550,23 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E230" t="b">
+        <v>0</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G230" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -8497,27 +7581,23 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E231" t="b">
+        <v>0</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G231" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -8532,27 +7612,23 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E232" t="b">
+        <v>0</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G232" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -8567,27 +7643,23 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E233" t="b">
+        <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G233" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8602,27 +7674,23 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E234" t="b">
+        <v>0</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G234" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -8637,27 +7705,23 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>blended-whisky</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E235" t="b">
+        <v>0</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -8672,27 +7736,23 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E236" t="b">
+        <v>0</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -8707,27 +7767,23 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E237" t="b">
+        <v>0</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G237" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -8742,27 +7798,23 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E238" t="b">
+        <v>0</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G238" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8777,27 +7829,23 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E239" t="b">
+        <v>0</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G239" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8812,27 +7860,23 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E240" t="b">
+        <v>0</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G240" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -8847,27 +7891,23 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E241" t="b">
+        <v>0</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G241" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -8882,27 +7922,23 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E242" t="b">
+        <v>0</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G242" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -8917,27 +7953,23 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E243" t="b">
+        <v>0</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G243" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -8952,27 +7984,23 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E244" t="b">
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G244" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -8987,27 +8015,23 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E245" t="b">
+        <v>0</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G245" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -9022,27 +8046,23 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E246" t="b">
+        <v>0</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G246" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -9057,27 +8077,23 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E247" t="b">
+        <v>0</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G247" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -9092,27 +8108,23 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>blended-scotch-whisky</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E248" t="b">
+        <v>0</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G248" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -9127,27 +8139,23 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E249" t="b">
+        <v>0</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G249" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -9162,27 +8170,23 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E250" t="b">
+        <v>0</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G250" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -9197,27 +8201,23 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E251" t="b">
+        <v>0</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G251" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -9232,27 +8232,23 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E252" t="b">
+        <v>0</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G252" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -9267,27 +8263,23 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E253" t="b">
+        <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G253" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -9302,27 +8294,23 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>american-irish-whiskey</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E254" t="b">
+        <v>0</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G254" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -9337,27 +8325,23 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E255" t="b">
+        <v>0</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G255" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -9372,27 +8356,23 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E256" t="b">
+        <v>0</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G256" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -9407,27 +8387,23 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E257" t="b">
+        <v>0</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G257" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9442,27 +8418,23 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E258" t="b">
+        <v>0</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G258" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -9477,27 +8449,23 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E259" t="b">
+        <v>0</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G259" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -9512,27 +8480,23 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E260" t="b">
+        <v>0</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G260" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -9547,27 +8511,23 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E261" t="b">
+        <v>0</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G261" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -9582,27 +8542,23 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>single-malt-whisky</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E262" t="b">
+        <v>0</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G262" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9617,27 +8573,23 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E263" t="b">
+        <v>0</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G263" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -9652,27 +8604,23 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E264" t="b">
+        <v>0</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G264" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -9687,27 +8635,23 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E265" t="b">
+        <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G265" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -9722,27 +8666,23 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E266" t="b">
+        <v>0</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G266" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -9757,27 +8697,23 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E267" t="b">
+        <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G267" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -9792,27 +8728,23 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E268" t="b">
+        <v>0</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G268" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -9827,27 +8759,23 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>vodka</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E269" t="b">
+        <v>0</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G269" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -9862,27 +8790,23 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E270" t="b">
+        <v>0</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G270" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -9897,27 +8821,23 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E271" t="b">
+        <v>0</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G271" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -9932,27 +8852,23 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E272" t="b">
+        <v>0</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G272" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -9967,27 +8883,23 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E273" t="b">
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G273" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -10002,27 +8914,23 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E274" t="b">
+        <v>0</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G274" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -10037,27 +8945,23 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>gin</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E275" t="b">
+        <v>0</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G275" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -10072,27 +8976,23 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E276" t="b">
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G276" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -10107,27 +9007,23 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E277" t="b">
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G277" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -10142,27 +9038,23 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E278" t="b">
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G278" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -10177,27 +9069,23 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E279" t="b">
+        <v>0</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G279" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -10212,27 +9100,23 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E280" t="b">
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G280" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -10247,27 +9131,23 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E281" t="b">
+        <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G281" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -10282,27 +9162,23 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E282" t="b">
+        <v>0</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G282" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -10317,27 +9193,23 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E283" t="b">
+        <v>0</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G283" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -10352,27 +9224,23 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>rum</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E284" t="b">
+        <v>0</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G284" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10387,27 +9255,23 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>tequila</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E285" t="b">
+        <v>0</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G285" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -10422,27 +9286,23 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>tequila</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E286" t="b">
+        <v>0</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G286" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -10457,27 +9317,23 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>tequila</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E287" t="b">
+        <v>0</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G287" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -10492,27 +9348,23 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
           <t>tequila</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E288" t="b">
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G288" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10527,27 +9379,23 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E289" t="b">
+        <v>0</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G289" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -10562,27 +9410,23 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E290" t="b">
+        <v>0</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G290" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -10597,27 +9441,23 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>cognac-brandy</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E291" t="b">
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G291" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -10639,20 +9479,16 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E292" t="b">
+        <v>0</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G292" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -10674,20 +9510,16 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E293" t="b">
+        <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G293" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -10709,20 +9541,16 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E294" t="b">
+        <v>0</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G294" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -10744,20 +9572,16 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E295" t="b">
+        <v>0</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G295" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -10779,20 +9603,16 @@
           <t>liqueurs</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E296" t="b">
+        <v>0</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G296" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -10807,27 +9627,23 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E297" t="b">
+        <v>0</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G297" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -10842,27 +9658,23 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E298" t="b">
+        <v>0</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G298" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -10877,27 +9689,23 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E299" t="b">
+        <v>0</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G299" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -10919,20 +9727,16 @@
           <t>sparkling-wine</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E300" t="b">
+        <v>0</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G300" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -10947,27 +9751,23 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>white-wines</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E301" t="b">
+        <v>0</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G301" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -10982,27 +9782,23 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>white-wines</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E302" t="b">
+        <v>0</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G302" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -11017,27 +9813,23 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>rose-wines</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E303" t="b">
+        <v>0</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G303" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -11052,27 +9844,23 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E304" t="b">
+        <v>0</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G304" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -11087,27 +9875,23 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E305" t="b">
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G305" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -11122,27 +9906,23 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>red-wines</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E306" t="b">
+        <v>0</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G306" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -11157,27 +9937,23 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
           <t>dessert-wines</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E307" t="b">
+        <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G307" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -11192,27 +9968,23 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>dessert-wines</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E308" t="b">
+        <v>0</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G308" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -11227,27 +9999,23 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>port-wine</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E309" t="b">
+        <v>0</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G309" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -11262,27 +10030,23 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>port-wine</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E310" t="b">
+        <v>0</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G310" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -11304,20 +10068,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E311" t="b">
+        <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G311" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -11339,20 +10099,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E312" t="b">
+        <v>0</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G312" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -11374,20 +10130,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E313" t="b">
+        <v>0</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G313" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -11409,20 +10161,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E314" t="b">
+        <v>0</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G314" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -11444,20 +10192,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E315" t="b">
+        <v>0</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G315" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -11479,20 +10223,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E316" t="b">
+        <v>0</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G316" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -11514,20 +10254,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E317" t="b">
+        <v>0</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G317" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -11549,20 +10285,16 @@
           <t>signature-mocktails</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E318" t="b">
+        <v>0</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G318" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -11584,20 +10316,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E319" t="b">
+        <v>0</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G319" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -11619,20 +10347,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E320" t="b">
+        <v>0</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="G320" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -11654,20 +10378,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E321" t="b">
+        <v>0</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G321" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -11689,20 +10409,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E322" t="b">
+        <v>0</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G322" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -11724,20 +10440,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E323" t="b">
+        <v>0</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G323" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -11759,20 +10471,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E324" t="b">
+        <v>0</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G324" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -11794,20 +10502,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E325" t="b">
+        <v>0</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G325" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -11829,20 +10533,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E326" t="b">
+        <v>0</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G326" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -11864,20 +10564,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E327" t="b">
+        <v>0</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G327" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -11899,55 +10595,16 @@
           <t>soft-beverages</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
+      <c r="E328" t="b">
+        <v>0</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
           <t>https://example.com/placeholder.jpg</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>( Vanila,Raspberry,Lemonade &amp; Ginger )_</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>No description available</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>0</v>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>soft-beverages</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>https://example.com/placeholder.jpg</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="G328" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
